--- a/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Localhost/StartSceneConfig@s.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12960" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="StartSceneConfig" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -92,66 +92,15 @@
     <t>DBCache</t>
   </si>
   <si>
-    <t>Chat</t>
-  </si>
-  <si>
-    <t>EMail</t>
-  </si>
-  <si>
-    <t>Activity</t>
-  </si>
-  <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>PaiMai</t>
-  </si>
-  <si>
-    <t>Team</t>
-  </si>
-  <si>
-    <t>Friend</t>
-  </si>
-  <si>
-    <t>Union</t>
-  </si>
-  <si>
     <t>Map</t>
   </si>
   <si>
     <t>Map101</t>
   </si>
   <si>
-    <t>JiaYuan</t>
-  </si>
-  <si>
-    <t>Popularize</t>
-  </si>
-  <si>
-    <t>Solo</t>
-  </si>
-  <si>
-    <t>FubenCenter</t>
-  </si>
-  <si>
-    <t>FubenCenter1</t>
-  </si>
-  <si>
-    <t>FubenCenter2</t>
-  </si>
-  <si>
-    <t>PetMatch</t>
-  </si>
-  <si>
     <t>#封测二区</t>
   </si>
   <si>
-    <t>#封测三区</t>
-  </si>
-  <si>
-    <t>#版号区</t>
-  </si>
-  <si>
     <t>LoginCenter</t>
   </si>
   <si>
@@ -159,9 +108,6 @@
   </si>
   <si>
     <t>Location</t>
-  </si>
-  <si>
-    <t>ReCharge</t>
   </si>
   <si>
     <t>RobotManager</t>
@@ -1214,10 +1160,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A3:O447"/>
+  <dimension ref="A3:O381"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H74" sqref="H74"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1406,1331 +1352,203 @@
     </row>
     <row r="11" spans="3:7">
       <c r="C11" s="13">
-        <v>105</v>
-      </c>
-      <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10">
+        <v>113</v>
+      </c>
+      <c r="D11" s="8">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
         <v>1</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" s="13"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="13">
+        <v>201</v>
+      </c>
+      <c r="D13" s="10">
+        <v>2</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="8">
+        <v>20335</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="13">
+        <v>202</v>
+      </c>
+      <c r="D14" s="10">
+        <v>2</v>
+      </c>
+      <c r="E14" s="10">
+        <v>1</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="10">
+        <v>20336</v>
+      </c>
+    </row>
+    <row r="15" s="7" customFormat="1" spans="1:8">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="13">
+        <v>203</v>
+      </c>
+      <c r="D15" s="8">
+        <v>2</v>
+      </c>
+      <c r="E15" s="8">
+        <v>1</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="8">
+        <v>20337</v>
+      </c>
+    </row>
+    <row r="16" s="7" customFormat="1" spans="3:8">
+      <c r="C16" s="13">
+        <v>204</v>
+      </c>
+      <c r="D16" s="10">
+        <v>2</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" s="7" customFormat="1" spans="3:8">
+      <c r="C17" s="13">
+        <v>213</v>
+      </c>
+      <c r="D17" s="10">
+        <v>2</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="F17" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="3:7">
-      <c r="C12" s="13">
-        <v>106</v>
-      </c>
-      <c r="D12" s="8">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="8" t="s">
+      <c r="G17" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="3:7">
-      <c r="C13" s="13">
-        <v>107</v>
-      </c>
-      <c r="D13" s="10">
-        <v>1</v>
-      </c>
-      <c r="E13" s="8">
-        <v>1</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="3:7">
-      <c r="C14" s="13">
-        <v>108</v>
-      </c>
-      <c r="D14" s="10">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10">
-        <v>1</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="3:7">
-      <c r="C15" s="13">
-        <v>109</v>
-      </c>
-      <c r="D15" s="8">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10">
-        <v>1</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="3:7">
-      <c r="C16" s="13">
-        <v>110</v>
-      </c>
-      <c r="D16" s="10">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10">
-        <v>1</v>
-      </c>
-      <c r="F16" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="3:7">
-      <c r="C17" s="13">
-        <v>111</v>
-      </c>
-      <c r="D17" s="10">
-        <v>1</v>
-      </c>
-      <c r="E17" s="8">
-        <v>1</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="3:7">
-      <c r="C18" s="13">
-        <v>112</v>
-      </c>
-      <c r="D18" s="8">
-        <v>1</v>
-      </c>
-      <c r="E18" s="10">
-        <v>1</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="3:7">
-      <c r="C19" s="13">
-        <v>113</v>
-      </c>
-      <c r="D19" s="8">
-        <v>1</v>
-      </c>
-      <c r="E19" s="8">
-        <v>1</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="3:7">
-      <c r="C20" s="13">
-        <v>114</v>
-      </c>
-      <c r="D20" s="10">
-        <v>1</v>
-      </c>
-      <c r="E20" s="10">
-        <v>1</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="3:7">
-      <c r="C21" s="13">
-        <v>115</v>
-      </c>
-      <c r="D21" s="8">
-        <v>1</v>
-      </c>
-      <c r="E21" s="10">
-        <v>1</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="3:7">
-      <c r="C22" s="13">
-        <v>116</v>
-      </c>
-      <c r="D22" s="10">
-        <v>1</v>
-      </c>
-      <c r="E22" s="8">
-        <v>1</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="3:7">
-      <c r="C23" s="13">
-        <v>117</v>
-      </c>
-      <c r="D23" s="10">
-        <v>1</v>
-      </c>
-      <c r="E23" s="10">
-        <v>1</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="3:7">
-      <c r="C24" s="13">
-        <v>118</v>
-      </c>
-      <c r="D24" s="10">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10">
-        <v>1</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="3:7">
-      <c r="C25" s="13">
-        <v>119</v>
-      </c>
-      <c r="D25" s="8">
-        <v>1</v>
-      </c>
-      <c r="E25" s="10">
-        <v>1</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5">
-      <c r="C26" s="13"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C27" s="13">
-        <v>201</v>
-      </c>
-      <c r="D27" s="10">
-        <v>2</v>
-      </c>
-      <c r="E27" s="10">
-        <v>1</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="8">
-        <v>20335</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="13">
-        <v>202</v>
-      </c>
-      <c r="D28" s="10">
-        <v>2</v>
-      </c>
-      <c r="E28" s="10">
-        <v>1</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H28" s="10">
-        <v>20336</v>
-      </c>
-    </row>
-    <row r="29" s="7" customFormat="1" spans="1:8">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="13">
-        <v>203</v>
-      </c>
-      <c r="D29" s="8">
-        <v>2</v>
-      </c>
-      <c r="E29" s="8">
-        <v>1</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H29" s="8">
-        <v>20337</v>
-      </c>
-    </row>
-    <row r="30" s="7" customFormat="1" spans="3:8">
-      <c r="C30" s="13">
-        <v>204</v>
-      </c>
-      <c r="D30" s="10">
-        <v>2</v>
-      </c>
-      <c r="E30" s="10">
-        <v>1</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" s="7" customFormat="1" spans="3:8">
-      <c r="C31" s="13">
-        <v>205</v>
-      </c>
-      <c r="D31" s="10">
-        <v>2</v>
-      </c>
-      <c r="E31" s="10">
-        <v>1</v>
-      </c>
-      <c r="F31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" s="7" customFormat="1" spans="3:8">
-      <c r="C32" s="13">
-        <v>206</v>
-      </c>
-      <c r="D32" s="8">
-        <v>2</v>
-      </c>
-      <c r="E32" s="10">
-        <v>1</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" s="7" customFormat="1" spans="3:8">
-      <c r="C33" s="13">
-        <v>207</v>
-      </c>
-      <c r="D33" s="10">
-        <v>2</v>
-      </c>
-      <c r="E33" s="8">
-        <v>1</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H33" s="8"/>
-    </row>
-    <row r="34" s="7" customFormat="1" spans="3:8">
-      <c r="C34" s="13">
-        <v>208</v>
-      </c>
-      <c r="D34" s="10">
-        <v>2</v>
-      </c>
-      <c r="E34" s="10">
-        <v>1</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" s="7" customFormat="1" spans="3:8">
-      <c r="C35" s="13">
-        <v>209</v>
-      </c>
-      <c r="D35" s="8">
-        <v>2</v>
-      </c>
-      <c r="E35" s="10">
-        <v>1</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H35" s="8"/>
-    </row>
-    <row r="36" s="7" customFormat="1" spans="3:8">
-      <c r="C36" s="13">
-        <v>210</v>
-      </c>
-      <c r="D36" s="10">
-        <v>2</v>
-      </c>
-      <c r="E36" s="10">
-        <v>1</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36" s="8"/>
-    </row>
-    <row r="37" s="7" customFormat="1" spans="3:8">
-      <c r="C37" s="13">
-        <v>211</v>
-      </c>
-      <c r="D37" s="10">
-        <v>2</v>
-      </c>
-      <c r="E37" s="8">
-        <v>1</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H37" s="8"/>
-    </row>
-    <row r="38" s="7" customFormat="1" spans="3:8">
-      <c r="C38" s="13">
-        <v>212</v>
-      </c>
-      <c r="D38" s="8">
-        <v>2</v>
-      </c>
-      <c r="E38" s="10">
-        <v>1</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" s="7" customFormat="1" spans="3:8">
-      <c r="C39" s="13">
-        <v>213</v>
-      </c>
-      <c r="D39" s="10">
-        <v>2</v>
-      </c>
-      <c r="E39" s="8">
-        <v>1</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" s="7" customFormat="1" spans="3:8">
-      <c r="C40" s="13">
-        <v>214</v>
-      </c>
-      <c r="D40" s="10">
-        <v>2</v>
-      </c>
-      <c r="E40" s="10">
-        <v>1</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" s="7" customFormat="1" spans="3:8">
-      <c r="C41" s="13">
-        <v>215</v>
-      </c>
-      <c r="D41" s="8">
-        <v>2</v>
-      </c>
-      <c r="E41" s="10">
-        <v>1</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G41" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" s="7" customFormat="1" spans="3:8">
-      <c r="C42" s="13">
-        <v>216</v>
-      </c>
-      <c r="D42" s="10">
-        <v>2</v>
-      </c>
-      <c r="E42" s="8">
-        <v>1</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" s="7" customFormat="1" spans="3:8">
-      <c r="C43" s="13">
-        <v>217</v>
-      </c>
-      <c r="D43" s="10">
-        <v>2</v>
-      </c>
-      <c r="E43" s="10">
-        <v>1</v>
-      </c>
-      <c r="F43" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" s="7" customFormat="1" spans="3:7">
-      <c r="C44" s="13">
-        <v>218</v>
-      </c>
-      <c r="D44" s="8">
-        <v>2</v>
-      </c>
-      <c r="E44" s="10">
-        <v>1</v>
-      </c>
-      <c r="F44" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="45" s="7" customFormat="1" spans="3:7">
-      <c r="C45" s="13">
-        <v>219</v>
-      </c>
-      <c r="D45" s="10">
-        <v>2</v>
-      </c>
-      <c r="E45" s="10">
-        <v>1</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G45" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="46" s="7" customFormat="1" spans="3:7">
-      <c r="C46" s="13"/>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-    </row>
-    <row r="47" s="7" customFormat="1" spans="1:8">
-      <c r="A47" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="13">
-        <v>301</v>
-      </c>
-      <c r="D47" s="10">
-        <v>3</v>
-      </c>
-      <c r="E47" s="10">
-        <v>1</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="8">
-        <v>20345</v>
-      </c>
-    </row>
-    <row r="48" s="7" customFormat="1" spans="1:8">
-      <c r="A48" s="6"/>
-      <c r="B48" s="6"/>
-      <c r="C48" s="13">
-        <v>302</v>
-      </c>
-      <c r="D48" s="10">
-        <v>3</v>
-      </c>
-      <c r="E48" s="10">
-        <v>1</v>
-      </c>
-      <c r="F48" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="10">
-        <v>20346</v>
-      </c>
-    </row>
-    <row r="49" s="7" customFormat="1" spans="1:8">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="13">
-        <v>303</v>
-      </c>
-      <c r="D49" s="10">
-        <v>3</v>
-      </c>
-      <c r="E49" s="8">
-        <v>1</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" s="8">
-        <v>20347</v>
-      </c>
-    </row>
-    <row r="50" s="7" customFormat="1" spans="3:8">
-      <c r="C50" s="13">
-        <v>304</v>
-      </c>
-      <c r="D50" s="10">
-        <v>3</v>
-      </c>
-      <c r="E50" s="10">
-        <v>1</v>
-      </c>
-      <c r="F50" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" s="7" customFormat="1" spans="3:8">
-      <c r="C51" s="13">
-        <v>305</v>
-      </c>
-      <c r="D51" s="10">
-        <v>3</v>
-      </c>
-      <c r="E51" s="10">
-        <v>1</v>
-      </c>
-      <c r="F51" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H51" s="8"/>
-    </row>
-    <row r="52" s="7" customFormat="1" spans="3:8">
-      <c r="C52" s="13">
-        <v>306</v>
-      </c>
-      <c r="D52" s="10">
-        <v>3</v>
-      </c>
-      <c r="E52" s="10">
-        <v>1</v>
-      </c>
-      <c r="F52" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" s="7" customFormat="1" spans="3:8">
-      <c r="C53" s="13">
-        <v>307</v>
-      </c>
-      <c r="D53" s="10">
-        <v>3</v>
-      </c>
-      <c r="E53" s="8">
-        <v>1</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H53" s="8"/>
-    </row>
-    <row r="54" s="7" customFormat="1" spans="3:8">
-      <c r="C54" s="13">
-        <v>308</v>
-      </c>
-      <c r="D54" s="10">
-        <v>3</v>
-      </c>
-      <c r="E54" s="10">
-        <v>1</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H54" s="8"/>
-    </row>
-    <row r="55" s="7" customFormat="1" spans="3:8">
-      <c r="C55" s="13">
-        <v>309</v>
-      </c>
-      <c r="D55" s="10">
-        <v>3</v>
-      </c>
-      <c r="E55" s="10">
-        <v>1</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H55" s="8"/>
-    </row>
-    <row r="56" s="7" customFormat="1" ht="13.5" customHeight="1" spans="3:8">
-      <c r="C56" s="13">
-        <v>310</v>
-      </c>
-      <c r="D56" s="10">
-        <v>3</v>
-      </c>
-      <c r="E56" s="10">
-        <v>1</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H56" s="8"/>
-    </row>
-    <row r="57" s="7" customFormat="1" spans="3:8">
-      <c r="C57" s="13">
-        <v>311</v>
-      </c>
-      <c r="D57" s="10">
-        <v>3</v>
-      </c>
-      <c r="E57" s="8">
-        <v>1</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H57" s="8"/>
-    </row>
-    <row r="58" s="7" customFormat="1" spans="3:8">
-      <c r="C58" s="13">
-        <v>312</v>
-      </c>
-      <c r="D58" s="10">
-        <v>3</v>
-      </c>
-      <c r="E58" s="10">
-        <v>1</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" s="7" customFormat="1" spans="3:8">
-      <c r="C59" s="13">
-        <v>313</v>
-      </c>
-      <c r="D59" s="10">
-        <v>3</v>
-      </c>
-      <c r="E59" s="8">
-        <v>1</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" s="7" customFormat="1" spans="3:8">
-      <c r="C60" s="13">
-        <v>314</v>
-      </c>
-      <c r="D60" s="10">
-        <v>3</v>
-      </c>
-      <c r="E60" s="10">
-        <v>1</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G60" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H60" s="8"/>
-    </row>
-    <row r="61" s="7" customFormat="1" spans="3:8">
-      <c r="C61" s="13">
-        <v>315</v>
-      </c>
-      <c r="D61" s="10">
-        <v>3</v>
-      </c>
-      <c r="E61" s="10">
-        <v>1</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G61" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H61" s="8"/>
-    </row>
-    <row r="62" s="7" customFormat="1" spans="3:8">
-      <c r="C62" s="13">
-        <v>316</v>
-      </c>
-      <c r="D62" s="10">
-        <v>3</v>
-      </c>
-      <c r="E62" s="8">
-        <v>1</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H62" s="8"/>
-    </row>
-    <row r="63" s="7" customFormat="1" spans="3:8">
-      <c r="C63" s="13">
-        <v>317</v>
-      </c>
-      <c r="D63" s="10">
-        <v>3</v>
-      </c>
-      <c r="E63" s="10">
-        <v>1</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G63" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H63" s="8"/>
-    </row>
-    <row r="64" s="7" customFormat="1" spans="3:7">
-      <c r="C64" s="13">
-        <v>318</v>
-      </c>
-      <c r="D64" s="10">
-        <v>3</v>
-      </c>
-      <c r="E64" s="10">
-        <v>1</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G64" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="65" s="7" customFormat="1" spans="3:7">
-      <c r="C65" s="13">
-        <v>319</v>
-      </c>
-      <c r="D65" s="10">
-        <v>3</v>
-      </c>
-      <c r="E65" s="10">
-        <v>1</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G65" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" s="7" customFormat="1" spans="3:7">
+      <c r="C18" s="13"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" s="7" customFormat="1"/>
+    <row r="20" s="7" customFormat="1"/>
+    <row r="21" s="7" customFormat="1"/>
+    <row r="22" s="7" customFormat="1"/>
+    <row r="23" s="7" customFormat="1"/>
+    <row r="24" s="7" customFormat="1"/>
+    <row r="25" s="7" customFormat="1"/>
+    <row r="26" s="7" customFormat="1"/>
+    <row r="27" s="7" customFormat="1"/>
+    <row r="28" s="7" customFormat="1"/>
+    <row r="29" s="7" customFormat="1"/>
+    <row r="30" s="7" customFormat="1"/>
+    <row r="31" s="7" customFormat="1"/>
+    <row r="32" s="7" customFormat="1"/>
+    <row r="33" s="7" customFormat="1"/>
+    <row r="34" s="7" customFormat="1"/>
+    <row r="35" s="7" customFormat="1"/>
+    <row r="36" s="7" customFormat="1"/>
+    <row r="37" s="7" customFormat="1"/>
+    <row r="38" s="7" customFormat="1"/>
+    <row r="39" s="7" customFormat="1"/>
+    <row r="40" s="7" customFormat="1"/>
+    <row r="41" s="7" customFormat="1"/>
+    <row r="42" s="7" customFormat="1"/>
+    <row r="43" s="7" customFormat="1"/>
+    <row r="44" s="7" customFormat="1"/>
+    <row r="45" s="7" customFormat="1"/>
+    <row r="46" s="7" customFormat="1"/>
+    <row r="47" s="7" customFormat="1"/>
+    <row r="48" s="7" customFormat="1"/>
+    <row r="49" s="7" customFormat="1"/>
+    <row r="50" s="7" customFormat="1"/>
+    <row r="51" s="7" customFormat="1"/>
+    <row r="52" s="7" customFormat="1"/>
+    <row r="53" s="7" customFormat="1"/>
+    <row r="54" s="7" customFormat="1"/>
+    <row r="55" s="7" customFormat="1"/>
+    <row r="56" s="7" customFormat="1"/>
+    <row r="57" s="7" customFormat="1"/>
+    <row r="58" s="7" customFormat="1"/>
+    <row r="59" s="7" customFormat="1"/>
+    <row r="60" s="7" customFormat="1"/>
+    <row r="61" s="7" customFormat="1"/>
+    <row r="62" s="7" customFormat="1"/>
+    <row r="63" s="7" customFormat="1"/>
+    <row r="64" s="7" customFormat="1"/>
+    <row r="65" s="7" customFormat="1"/>
     <row r="66" s="7" customFormat="1"/>
-    <row r="67" s="7" customFormat="1" spans="1:8">
-      <c r="A67" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C67" s="13">
-        <v>101101</v>
-      </c>
-      <c r="D67" s="10">
-        <v>1011</v>
-      </c>
-      <c r="E67" s="10">
-        <v>1</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="H67" s="8">
-        <v>20355</v>
-      </c>
-    </row>
-    <row r="68" s="7" customFormat="1" spans="1:8">
-      <c r="A68" s="6"/>
-      <c r="B68" s="6"/>
-      <c r="C68" s="13">
-        <v>101102</v>
-      </c>
-      <c r="D68" s="10">
-        <v>1011</v>
-      </c>
-      <c r="E68" s="10">
-        <v>1</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H68" s="10">
-        <v>20356</v>
-      </c>
-    </row>
-    <row r="69" s="7" customFormat="1" spans="1:8">
-      <c r="A69" s="6"/>
-      <c r="B69" s="6"/>
-      <c r="C69" s="13">
-        <v>101103</v>
-      </c>
-      <c r="D69" s="10">
-        <v>1011</v>
-      </c>
-      <c r="E69" s="8">
-        <v>1</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="H69" s="8">
-        <v>20357</v>
-      </c>
-    </row>
-    <row r="70" s="7" customFormat="1" spans="3:8">
-      <c r="C70" s="13">
-        <v>101104</v>
-      </c>
-      <c r="D70" s="10">
-        <v>1011</v>
-      </c>
-      <c r="E70" s="10">
-        <v>1</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G70" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H70" s="8"/>
-    </row>
-    <row r="71" s="7" customFormat="1" spans="3:8">
-      <c r="C71" s="13">
-        <v>101105</v>
-      </c>
-      <c r="D71" s="10">
-        <v>1011</v>
-      </c>
-      <c r="E71" s="10">
-        <v>1</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G71" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H71" s="8"/>
-    </row>
-    <row r="72" s="7" customFormat="1" spans="3:8">
-      <c r="C72" s="13">
-        <v>101106</v>
-      </c>
-      <c r="D72" s="10">
-        <v>1011</v>
-      </c>
-      <c r="E72" s="10">
-        <v>1</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H72" s="8"/>
-    </row>
-    <row r="73" s="7" customFormat="1" spans="3:8">
-      <c r="C73" s="13">
-        <v>101107</v>
-      </c>
-      <c r="D73" s="10">
-        <v>1011</v>
-      </c>
-      <c r="E73" s="8">
-        <v>1</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G73" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H73" s="8"/>
-    </row>
-    <row r="74" s="7" customFormat="1" spans="3:8">
-      <c r="C74" s="13">
-        <v>101108</v>
-      </c>
-      <c r="D74" s="10">
-        <v>1011</v>
-      </c>
-      <c r="E74" s="10">
-        <v>1</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G74" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H74" s="8"/>
-    </row>
-    <row r="75" s="7" customFormat="1" spans="3:8">
-      <c r="C75" s="13">
-        <v>101109</v>
-      </c>
-      <c r="D75" s="10">
-        <v>1011</v>
-      </c>
-      <c r="E75" s="10">
-        <v>1</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G75" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="H75" s="8"/>
-    </row>
-    <row r="76" s="7" customFormat="1" spans="3:8">
-      <c r="C76" s="13">
-        <v>101110</v>
-      </c>
-      <c r="D76" s="10">
-        <v>1011</v>
-      </c>
-      <c r="E76" s="10">
-        <v>1</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H76" s="8"/>
-    </row>
-    <row r="77" s="7" customFormat="1" spans="3:8">
-      <c r="C77" s="13">
-        <v>101111</v>
-      </c>
-      <c r="D77" s="10">
-        <v>1011</v>
-      </c>
-      <c r="E77" s="8">
-        <v>1</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="H77" s="8"/>
-    </row>
-    <row r="78" s="7" customFormat="1" spans="3:8">
-      <c r="C78" s="13">
-        <v>101112</v>
-      </c>
-      <c r="D78" s="10">
-        <v>1011</v>
-      </c>
-      <c r="E78" s="10">
-        <v>1</v>
-      </c>
-      <c r="F78" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G78" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="H78" s="8"/>
-    </row>
-    <row r="79" s="7" customFormat="1" spans="3:8">
-      <c r="C79" s="13">
-        <v>101113</v>
-      </c>
-      <c r="D79" s="10">
-        <v>1011</v>
-      </c>
-      <c r="E79" s="8">
-        <v>1</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G79" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="H79" s="8"/>
-    </row>
-    <row r="80" s="7" customFormat="1" spans="3:8">
-      <c r="C80" s="13">
-        <v>101114</v>
-      </c>
-      <c r="D80" s="10">
-        <v>1011</v>
-      </c>
-      <c r="E80" s="10">
-        <v>1</v>
-      </c>
-      <c r="F80" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="G80" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="H80" s="8"/>
-    </row>
-    <row r="81" s="7" customFormat="1" spans="3:8">
-      <c r="C81" s="13">
-        <v>101115</v>
-      </c>
-      <c r="D81" s="10">
-        <v>1011</v>
-      </c>
-      <c r="E81" s="10">
-        <v>1</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="G81" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="H81" s="8"/>
-    </row>
-    <row r="82" s="7" customFormat="1" spans="3:8">
-      <c r="C82" s="13">
-        <v>101116</v>
-      </c>
-      <c r="D82" s="10">
-        <v>1011</v>
-      </c>
-      <c r="E82" s="8">
-        <v>1</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G82" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H82" s="8"/>
-    </row>
-    <row r="83" s="7" customFormat="1" spans="3:8">
-      <c r="C83" s="13">
-        <v>101117</v>
-      </c>
-      <c r="D83" s="10">
-        <v>1011</v>
-      </c>
-      <c r="E83" s="10">
-        <v>1</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H83" s="8"/>
-    </row>
-    <row r="84" s="7" customFormat="1" spans="3:7">
-      <c r="C84" s="13">
-        <v>101118</v>
-      </c>
-      <c r="D84" s="10">
-        <v>1011</v>
-      </c>
-      <c r="E84" s="10">
-        <v>1</v>
-      </c>
-      <c r="F84" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G84" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="85" s="7" customFormat="1" spans="3:7">
-      <c r="C85" s="13">
-        <v>101119</v>
-      </c>
-      <c r="D85" s="10">
-        <v>1011</v>
-      </c>
-      <c r="E85" s="10">
-        <v>1</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
+    <row r="67" s="7" customFormat="1"/>
+    <row r="68" s="7" customFormat="1"/>
+    <row r="69" s="7" customFormat="1"/>
+    <row r="70" s="7" customFormat="1"/>
+    <row r="71" s="7" customFormat="1"/>
+    <row r="72" s="7" customFormat="1"/>
+    <row r="73" s="7" customFormat="1"/>
+    <row r="74" s="7" customFormat="1"/>
+    <row r="75" s="7" customFormat="1"/>
+    <row r="76" s="7" customFormat="1"/>
+    <row r="77" s="7" customFormat="1"/>
+    <row r="78" s="7" customFormat="1"/>
+    <row r="79" s="7" customFormat="1"/>
+    <row r="80" s="7" customFormat="1"/>
+    <row r="81" s="7" customFormat="1"/>
+    <row r="82" s="7" customFormat="1"/>
+    <row r="83" s="7" customFormat="1"/>
+    <row r="84" s="7" customFormat="1"/>
+    <row r="85" s="7" customFormat="1"/>
     <row r="86" s="7" customFormat="1"/>
     <row r="87" s="7" customFormat="1"/>
     <row r="88" s="7" customFormat="1"/>
@@ -3025,87 +1843,21 @@
     <row r="377" s="7" customFormat="1"/>
     <row r="378" s="7" customFormat="1"/>
     <row r="379" s="7" customFormat="1"/>
-    <row r="380" s="7" customFormat="1"/>
-    <row r="381" s="7" customFormat="1"/>
-    <row r="382" s="7" customFormat="1"/>
-    <row r="383" s="7" customFormat="1"/>
-    <row r="384" s="7" customFormat="1"/>
-    <row r="385" s="7" customFormat="1"/>
-    <row r="386" s="7" customFormat="1"/>
-    <row r="387" s="7" customFormat="1"/>
-    <row r="388" s="7" customFormat="1"/>
-    <row r="389" s="7" customFormat="1"/>
-    <row r="390" s="7" customFormat="1"/>
-    <row r="391" s="7" customFormat="1"/>
-    <row r="392" s="7" customFormat="1"/>
-    <row r="393" s="7" customFormat="1"/>
-    <row r="394" s="7" customFormat="1"/>
-    <row r="395" s="7" customFormat="1"/>
-    <row r="396" s="7" customFormat="1"/>
-    <row r="397" s="7" customFormat="1"/>
-    <row r="398" s="7" customFormat="1"/>
-    <row r="399" s="7" customFormat="1"/>
-    <row r="400" s="7" customFormat="1"/>
-    <row r="401" s="7" customFormat="1"/>
-    <row r="402" s="7" customFormat="1"/>
-    <row r="403" s="7" customFormat="1"/>
-    <row r="404" s="7" customFormat="1"/>
-    <row r="405" s="7" customFormat="1"/>
-    <row r="406" s="7" customFormat="1"/>
-    <row r="407" s="7" customFormat="1"/>
-    <row r="408" s="7" customFormat="1"/>
-    <row r="409" s="7" customFormat="1"/>
-    <row r="410" s="7" customFormat="1"/>
-    <row r="411" s="7" customFormat="1"/>
-    <row r="412" s="7" customFormat="1"/>
-    <row r="413" s="7" customFormat="1"/>
-    <row r="414" s="7" customFormat="1"/>
-    <row r="415" s="7" customFormat="1"/>
-    <row r="416" s="7" customFormat="1"/>
-    <row r="417" s="7" customFormat="1"/>
-    <row r="418" s="7" customFormat="1"/>
-    <row r="419" s="7" customFormat="1"/>
-    <row r="420" s="7" customFormat="1"/>
-    <row r="421" s="7" customFormat="1"/>
-    <row r="422" s="7" customFormat="1"/>
-    <row r="423" s="7" customFormat="1"/>
-    <row r="424" s="7" customFormat="1"/>
-    <row r="425" s="7" customFormat="1"/>
-    <row r="426" s="7" customFormat="1"/>
-    <row r="427" s="7" customFormat="1"/>
-    <row r="428" s="7" customFormat="1"/>
-    <row r="429" s="7" customFormat="1"/>
-    <row r="430" s="7" customFormat="1"/>
-    <row r="431" s="7" customFormat="1"/>
-    <row r="432" s="7" customFormat="1"/>
-    <row r="433" s="7" customFormat="1"/>
-    <row r="434" s="7" customFormat="1"/>
-    <row r="435" s="7" customFormat="1"/>
-    <row r="436" s="7" customFormat="1"/>
-    <row r="437" s="7" customFormat="1"/>
-    <row r="438" s="7" customFormat="1"/>
-    <row r="439" s="7" customFormat="1"/>
-    <row r="440" s="7" customFormat="1"/>
-    <row r="441" s="7" customFormat="1"/>
-    <row r="442" s="7" customFormat="1"/>
-    <row r="443" s="7" customFormat="1"/>
-    <row r="444" s="7" customFormat="1"/>
-    <row r="445" s="7" customFormat="1"/>
-    <row r="446" s="7" customFormat="1" spans="3:8">
-      <c r="C446" s="11"/>
-      <c r="D446" s="8"/>
-      <c r="E446" s="8"/>
-      <c r="F446" s="8"/>
-      <c r="G446" s="8"/>
-      <c r="H446" s="8"/>
-    </row>
-    <row r="447" s="7" customFormat="1" spans="3:8">
-      <c r="C447" s="11"/>
-      <c r="D447" s="8"/>
-      <c r="E447" s="8"/>
-      <c r="F447" s="8"/>
-      <c r="G447" s="8"/>
-      <c r="H447" s="8"/>
+    <row r="380" s="7" customFormat="1" spans="3:8">
+      <c r="C380" s="11"/>
+      <c r="D380" s="8"/>
+      <c r="E380" s="8"/>
+      <c r="F380" s="8"/>
+      <c r="G380" s="8"/>
+      <c r="H380" s="8"/>
+    </row>
+    <row r="381" s="7" customFormat="1" spans="3:8">
+      <c r="C381" s="11"/>
+      <c r="D381" s="8"/>
+      <c r="E381" s="8"/>
+      <c r="F381" s="8"/>
+      <c r="G381" s="8"/>
+      <c r="H381" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3117,13 +1869,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="$A9:$XFD9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="5" max="5" width="10.25" customWidth="1"/>
     <col min="6" max="6" width="15.75" customWidth="1"/>
@@ -3227,10 +1979,10 @@
         <v>1000</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="H6" s="10">
         <v>30310</v>
@@ -3247,10 +1999,10 @@
         <v>1000</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H7" s="10">
         <v>30311</v>
@@ -3267,29 +2019,12 @@
         <v>1000</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="H8" s="10"/>
-    </row>
-    <row r="9" ht="14.25" spans="3:7">
-      <c r="C9" s="10">
-        <v>1000204</v>
-      </c>
-      <c r="D9" s="10">
-        <v>1</v>
-      </c>
-      <c r="E9" s="10">
-        <v>1000</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>43</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3412,10 +2147,10 @@
         <v>1001</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="H6" s="5"/>
     </row>
@@ -3579,10 +2314,10 @@
         <v>1002</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="H6" s="5">
         <v>30300</v>
@@ -3601,10 +2336,10 @@
         <v>1002</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H7" s="5">
         <v>30301</v>
@@ -3623,10 +2358,10 @@
         <v>1002</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="H8" s="5">
         <v>30302</v>
@@ -3645,10 +2380,10 @@
         <v>1002</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="H9" s="5">
         <v>30303</v>
@@ -3667,10 +2402,10 @@
         <v>1002</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="H10" s="5">
         <v>30304</v>
